--- a/Hardware_fabrication/Tracker/v1.0 23.10.2021/BOM 23.10.2021 17.42.xlsx
+++ b/Hardware_fabrication/Tracker/v1.0 23.10.2021/BOM 23.10.2021 17.42.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jedi\Documents\Peggy\pcb_fabrication\Tracker\v1.0 23.10.2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jedi\Documents\Peggy\Hardware_fabrication\Tracker\v1.0 23.10.2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD53C54-74C6-4D02-A84D-60073C6A35C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F62F47-9ABB-4744-B9B9-21676E5630AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1C7DA66E-A762-4FC2-8E3C-946701791989}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" xr2:uid="{1C7DA66E-A762-4FC2-8E3C-946701791989}"/>
   </bookViews>
   <sheets>
     <sheet name="Peggy 23.10.2021 17.42" sheetId="1" r:id="rId1"/>
@@ -689,14 +689,14 @@
   </sheetPr>
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="4" customWidth="1"/>
     <col min="4" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
     <col min="8" max="10" width="16" customWidth="1"/>
@@ -828,33 +828,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="1:10" s="12" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="5">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="9">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="9">
         <v>0.37</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="9">
         <v>0.37</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="9">
         <v>6975</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="10" t="s">
         <v>14</v>
       </c>
     </row>
